--- a/views/report-emiten/_export.xlsx
+++ b/views/report-emiten/_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Total Laba/Rugi:</t>
+  </si>
+  <si>
+    <t>SIMULASI</t>
+  </si>
+  <si>
+    <t>Penjualan</t>
+  </si>
+  <si>
+    <t>Komisi</t>
+  </si>
+  <si>
+    <t>Total Harga</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
   </si>
 </sst>
 </file>
@@ -139,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,6 +186,25 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +602,18 @@
       <c r="L4" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
@@ -576,9 +622,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/views/report-emiten/_export.xlsx
+++ b/views/report-emiten/_export.xlsx
@@ -55,9 +55,6 @@
     <t>LAPORAN EMITEN</t>
   </si>
   <si>
-    <t>Total Laba/Rugi:</t>
-  </si>
-  <si>
     <t>SIMULASI</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Tgl</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,12 +149,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,27 +194,48 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,24 +560,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
+      <c r="K2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -601,95 +635,127 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
+    <row r="5" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="7"/>
+    </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="H6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="10" t="s">
-        <v>13</v>
+      <c r="D6" s="11">
+        <f>SUM(D4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
       </c>
       <c r="L6" s="11">
         <f>SUM(L4:L5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="H8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
